--- a/outputs/survey_usefulness_evaluation_table.xlsx
+++ b/outputs/survey_usefulness_evaluation_table.xlsx
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1183,7 +1183,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1883,7 +1883,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2023,7 +2023,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2093,7 +2093,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2163,7 +2163,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2233,7 +2233,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">

--- a/outputs/survey_usefulness_evaluation_table.xlsx
+++ b/outputs/survey_usefulness_evaluation_table.xlsx
@@ -506,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -541,13 +541,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -611,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -681,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -716,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -773,26 +773,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>General information</t>
+          <t>Metadata</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -808,7 +808,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dataset versioning</t>
+          <t>Just the Facts</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -821,13 +821,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -843,26 +843,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Motivation</t>
+          <t>Collected (Why) – Use Cases</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Data Composition</t>
+          <t>Collected (What)</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -913,7 +913,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Devices and Contextual Attributes in Data Collection</t>
+          <t>Collected (How)</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -923,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Challenge tests and confounding factors</t>
+          <t>Processed (How)</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -983,7 +983,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Collection and use of demographic information</t>
+          <t>Known Issues</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1018,32 +1018,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pre-processing / de-identification</t>
+          <t>Overall</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Labeling and subjectivity of labeling</t>
+          <t>Dataset Requirements Specification</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1063,22 +1063,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Collection Process</t>
+          <t>Dataset Design Document</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1123,32 +1123,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Accessibility in data collection</t>
+          <t>Dataset Testing Report</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Uses</t>
+          <t>Overall</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1168,22 +1168,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1193,32 +1193,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dataset Distribution</t>
+          <t>General information</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Dataset versioning</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1241,19 +1241,19 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Overall</t>
+          <t>Motivation</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Data Composition</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1308,22 +1308,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Authorship</t>
+          <t>Devices and Contextual Attributes in Data Collection</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1343,22 +1343,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dataset Overview</t>
+          <t>Challenge tests and confounding factors</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1381,19 +1381,19 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Example of Data Points</t>
+          <t>Collection and use of demographic information</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1413,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Motivations &amp; Intentions</t>
+          <t>Pre-processing / de-identification</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1448,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Access, Retention, &amp; Wipeout</t>
+          <t>Labeling and subjectivity of labeling</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Collection Process</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Human and Other Sensitive Attributes</t>
+          <t>Accessibility in data collection</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1553,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1578,32 +1578,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Extended Use</t>
+          <t>Uses</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Transformations</t>
+          <t>Dataset Distribution</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1648,14 +1648,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Annotations &amp; Labeling</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1667,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Validation Types</t>
+          <t>Overall</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1693,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sampling Methods</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1728,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Known Applications &amp; Benchmarks</t>
+          <t>Authorship</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1763,22 +1763,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Terms of Art</t>
+          <t>Dataset Overview</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1798,22 +1798,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
         <v>5</v>
       </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Reflections on Data</t>
+          <t>Example of Data Points</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1833,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Overall</t>
+          <t>Motivations &amp; Intentions</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Metadata</t>
+          <t>Access, Retention, &amp; Wipeout</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1903,22 +1903,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Just the Facts</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1938,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Collected (Why) – Use Cases</t>
+          <t>Human and Other Sensitive Attributes</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Collected (What)</t>
+          <t>Extended Use</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Collected (How)</t>
+          <t>Transformations</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2043,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Processed (How)</t>
+          <t>Annotations &amp; Labeling</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2078,22 +2078,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Known Issues</t>
+          <t>Validation Types</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2113,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2138,26 +2138,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Overall</t>
+          <t>Sampling Methods</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
         <v>3</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dataset Requirements Specification</t>
+          <t>Known Applications &amp; Benchmarks</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2183,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dataset Design Document</t>
+          <t>Terms of Art</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dataset Testing Report</t>
+          <t>Reflections on Data</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2253,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="n">
         <v>4</v>
       </c>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2285,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
         <v>3</v>
       </c>
-      <c r="G53" t="n">
-        <v>4</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/survey_usefulness_evaluation_table.xlsx
+++ b/outputs/survey_usefulness_evaluation_table.xlsx
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
